--- a/Prima.xlsx
+++ b/Prima.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc8896f2d5f85552/HFU/5.Semester/PRIMA/_PRIMA/PrimaSS21Endabgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C7ED61-07C4-4653-804D-102A310F6458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C7C7ED61-07C4-4653-804D-102A310F6458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C189853-1F64-40F1-AB37-B95E0A60CA8A}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Titel</t>
-  </si>
-  <si>
-    <t>DestroydbyBeth</t>
   </si>
   <si>
     <t>Name</t>
@@ -235,6 +232,9 @@
       </rPr>
       <t xml:space="preserve"> können die Bewegungspfade ausgewählt werden. Mit dem Mausrad kann die Entfernung zur ausgewählten Figur verändert werden.</t>
     </r>
+  </si>
+  <si>
+    <t>Bethtastic Chess</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:D325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,24 +746,24 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4">
         <v>262144</v>
@@ -775,41 +775,41 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -895,41 +895,41 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -937,13 +937,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,13 +1005,13 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -1019,27 +1019,27 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">

--- a/Prima.xlsx
+++ b/Prima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc8896f2d5f85552/HFU/5.Semester/PRIMA/_PRIMA/PrimaSS21Endabgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C7C7ED61-07C4-4653-804D-102A310F6458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C189853-1F64-40F1-AB37-B95E0A60CA8A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C7C7ED61-07C4-4653-804D-102A310F6458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F195E08-0045-4862-A9AF-658C4F804F28}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Spielparameter sind extern in einer Datei veränderbar, so dass das Spiel nur neu gestartet, aber nicht neu kompiliert werden muss. Welche Parameter sind dies und was sind die Auswirkungen?</t>
-  </si>
-  <si>
-    <t>Name der Sounds; Der Nutzer kann die Laufgeschwidnigkeit einstellen; Der Nutzer kann die maximal Spielzeit eingeben; der Nutzer kann einstellen ob das Spielablaufen kann, also ob die Zugzeit gezählt und abgerechnet wird; Er kann bestimmte Teile des Huds ausblenden</t>
   </si>
   <si>
     <t>Verhaltensklassen</t>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>Bethtastic Chess</t>
+  </si>
+  <si>
+    <t>Name der Sounds; Der Nutzer kann die Laufgeschwidnigkeit einstellen; Der Nutzer kann die maximal Spielzeit eingeben; der Nutzer kann einstellen ob das Spielablaufen kann, also ob die Zugzeit gezählt und abgerechnet wird; Er kann bestimmte Teile des Huds ausblenden; Fähigkeiten also bestimmte ANgriffe die jede Figur hat kann von ausßen bestimmt werden</t>
   </si>
 </sst>
 </file>
@@ -404,6 +404,50 @@
         <a:xfrm>
           <a:off x="4479620" y="9737187"/>
           <a:ext cx="3740455" cy="2502438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5215</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8DA56F-9D47-4A95-885F-C6F6176C2E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18516600"/>
+          <a:ext cx="8196715" cy="4676775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -781,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -918,7 +962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -929,7 +973,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -937,13 +981,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,13 +1049,13 @@
         <v>9</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -1019,13 +1063,13 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1033,13 +1077,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">

--- a/Prima.xlsx
+++ b/Prima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc8896f2d5f85552/HFU/5.Semester/PRIMA/_PRIMA/PrimaSS21Endabgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{C7C7ED61-07C4-4653-804D-102A310F6458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F195E08-0045-4862-A9AF-658C4F804F28}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C7C7ED61-07C4-4653-804D-102A310F6458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70B0B69A-7F87-4EBE-9FE7-0ADFCC4297F6}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,16 +370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>31445</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2126945</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>212187</xdr:rowOff>
+      <xdr:rowOff>212186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>137459</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -402,8 +402,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4479620" y="9737187"/>
-          <a:ext cx="3740455" cy="2502438"/>
+          <a:off x="4403420" y="9927686"/>
+          <a:ext cx="3925539" cy="2626263"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
